--- a/scalpel/typeinfer/evaluation/evaluation_outputs/google-research__bert.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/google-research__bert.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F714"/>
+  <dimension ref="A1:F715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="E286" s="2" t="inlineStr">
         <is>
-          <t>{'InputFeatures', 'any', 'empty'}</t>
+          <t>{'any', 'empty', 'InputFeatures'}</t>
         </is>
       </c>
       <c r="F286" s="3" t="inlineStr">
@@ -9632,12 +9632,12 @@
       </c>
       <c r="E287" s="2" t="inlineStr">
         <is>
-          <t>InputFeatures</t>
-        </is>
-      </c>
-      <c r="F287" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="F287" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -23256,7 +23256,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E713" s="2" t="inlineStr">
         <is>
@@ -23270,15 +23270,29 @@
     <row r="714">
       <c r="A714" s="2" t="inlineStr"/>
       <c r="B714" s="2" t="inlineStr"/>
-      <c r="C714" s="2" t="inlineStr"/>
-      <c r="D714" s="2" t="inlineStr"/>
-      <c r="E714" s="2" t="inlineStr">
+      <c r="C714" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D714" s="2" t="n">
+        <v>4343.75</v>
+      </c>
+      <c r="E714" s="2" t="inlineStr"/>
+      <c r="F714" s="2" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="inlineStr"/>
+      <c r="B715" s="2" t="inlineStr"/>
+      <c r="C715" s="2" t="inlineStr"/>
+      <c r="D715" s="2" t="inlineStr"/>
+      <c r="E715" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F714" s="2" t="n">
-        <v>113.33</v>
+      <c r="F715" s="2" t="n">
+        <v>106.25</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/google-research__bert.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/google-research__bert.xlsx
@@ -48,12 +48,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -704,7 +704,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[any]'}</t>
+          <t>{'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[any]'}</t>
+          <t>{'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
           <t>{'float'}</t>
         </is>
       </c>
-      <c r="F88" s="5" t="inlineStr">
+      <c r="F88" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -3299,7 +3299,7 @@
           <t>float</t>
         </is>
       </c>
-      <c r="F89" s="5" t="inlineStr">
+      <c r="F89" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>List[any]</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
@@ -4099,7 +4099,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F114" s="4" t="inlineStr">
+      <c r="F114" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4131,7 +4131,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F115" s="4" t="inlineStr">
+      <c r="F115" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4163,7 +4163,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F116" s="4" t="inlineStr">
+      <c r="F116" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4195,7 +4195,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F117" s="4" t="inlineStr">
+      <c r="F117" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4227,7 +4227,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F118" s="4" t="inlineStr">
+      <c r="F118" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4259,7 +4259,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F119" s="4" t="inlineStr">
+      <c r="F119" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4355,7 +4355,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F122" s="4" t="inlineStr">
+      <c r="F122" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4387,7 +4387,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F123" s="4" t="inlineStr">
+      <c r="F123" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4512,12 +4512,12 @@
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
           <t>Union[list, tuple, dict]</t>
         </is>
       </c>
-      <c r="F243" s="5" t="inlineStr">
+      <c r="F243" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8547,7 +8547,7 @@
           <t>Union[list, tuple, dict]</t>
         </is>
       </c>
-      <c r="F253" s="5" t="inlineStr">
+      <c r="F253" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -8707,7 +8707,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F258" s="4" t="inlineStr">
+      <c r="F258" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -8739,7 +8739,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F259" s="4" t="inlineStr">
+      <c r="F259" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -8835,7 +8835,7 @@
           <t>{'any'}</t>
         </is>
       </c>
-      <c r="F262" s="4" t="inlineStr">
+      <c r="F262" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -8867,7 +8867,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F263" s="4" t="inlineStr">
+      <c r="F263" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -9635,7 +9635,7 @@
           <t>any</t>
         </is>
       </c>
-      <c r="F287" s="4" t="inlineStr">
+      <c r="F287" s="5" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -10467,7 +10467,7 @@
           <t>PaddingInputExample</t>
         </is>
       </c>
-      <c r="F313" s="5" t="inlineStr">
+      <c r="F313" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -14051,7 +14051,7 @@
           <t>{'tokenization.FullTokenizer'}</t>
         </is>
       </c>
-      <c r="F425" s="5" t="inlineStr">
+      <c r="F425" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -14083,7 +14083,7 @@
           <t>tokenization.FullTokenizer</t>
         </is>
       </c>
-      <c r="F426" s="5" t="inlineStr">
+      <c r="F426" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -16547,7 +16547,7 @@
           <t>{'bool'}</t>
         </is>
       </c>
-      <c r="F503" s="5" t="inlineStr">
+      <c r="F503" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -16579,7 +16579,7 @@
           <t>bool</t>
         </is>
       </c>
-      <c r="F504" s="5" t="inlineStr">
+      <c r="F504" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -17219,7 +17219,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F524" s="5" t="inlineStr">
+      <c r="F524" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -17347,7 +17347,7 @@
           <t>callable</t>
         </is>
       </c>
-      <c r="F528" s="5" t="inlineStr">
+      <c r="F528" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -19171,7 +19171,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F585" s="5" t="inlineStr">
+      <c r="F585" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -19555,7 +19555,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F597" s="5" t="inlineStr">
+      <c r="F597" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -19875,7 +19875,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F607" s="5" t="inlineStr">
+      <c r="F607" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -20259,7 +20259,7 @@
           <t>int</t>
         </is>
       </c>
-      <c r="F619" s="5" t="inlineStr">
+      <c r="F619" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -20736,7 +20736,7 @@
       </c>
       <c r="E634" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'List[any]'}</t>
+          <t>{'List[any]', 'any'}</t>
         </is>
       </c>
       <c r="F634" s="3" t="inlineStr">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="E635" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>List[any]</t>
         </is>
       </c>
       <c r="F635" s="3" t="inlineStr">
@@ -22019,7 +22019,7 @@
           <t>Union[str, bytes, unicode]</t>
         </is>
       </c>
-      <c r="F674" s="5" t="inlineStr">
+      <c r="F674" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -22051,7 +22051,7 @@
           <t>Union[str, bytes, unicode]</t>
         </is>
       </c>
-      <c r="F675" s="5" t="inlineStr">
+      <c r="F675" s="4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -23256,7 +23256,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E713" s="2" t="inlineStr">
         <is>
@@ -23270,16 +23270,16 @@
     <row r="714">
       <c r="A714" s="2" t="inlineStr"/>
       <c r="B714" s="2" t="inlineStr"/>
-      <c r="C714" s="2" t="inlineStr">
+      <c r="C714" s="2" t="inlineStr"/>
+      <c r="D714" s="2" t="inlineStr"/>
+      <c r="E714" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D714" s="2" t="n">
-        <v>4343.75</v>
-      </c>
-      <c r="E714" s="2" t="inlineStr"/>
-      <c r="F714" s="2" t="inlineStr"/>
+      <c r="F714" s="2" t="n">
+        <v>98.17</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="inlineStr"/>
@@ -23288,11 +23288,11 @@
       <c r="D715" s="2" t="inlineStr"/>
       <c r="E715" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F715" s="2" t="n">
-        <v>106.25</v>
+        <v>130.77</v>
       </c>
     </row>
   </sheetData>
